--- a/pipeline/api/data/results/variable_patient_missing_matrix.xlsx
+++ b/pipeline/api/data/results/variable_patient_missing_matrix.xlsx
@@ -470,7 +470,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>57.63</v>
+        <v>83.05</v>
       </c>
     </row>
     <row r="3">
@@ -487,12 +487,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>75.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>75.61</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.33</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>53.33</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -1281,9 +1281,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1323,9 +1327,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1344,9 +1352,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1386,9 +1398,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1407,9 +1423,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1428,9 +1448,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1449,9 +1473,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1470,9 +1498,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1491,9 +1523,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1512,9 +1548,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1533,9 +1573,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1554,9 +1598,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1575,9 +1623,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1596,9 +1648,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1617,9 +1673,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">

--- a/pipeline/api/data/results/variable_patient_missing_matrix.xlsx
+++ b/pipeline/api/data/results/variable_patient_missing_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TEST001</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -470,7 +475,10 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>83.05</v>
+        <v>35</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38.33</v>
       </c>
     </row>
     <row r="3">
@@ -487,12 +495,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.61</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.61</t>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -518,6 +531,11 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -541,6 +559,11 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,12 +579,17 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,11 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -610,6 +643,11 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -625,12 +663,17 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -656,6 +699,11 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -679,6 +727,11 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -697,9 +750,14 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,9 +776,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -743,9 +802,14 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -764,9 +828,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -789,9 +854,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -814,9 +880,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -839,9 +906,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -864,9 +932,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -889,9 +958,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -914,9 +984,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -939,9 +1010,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -964,9 +1036,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -989,9 +1062,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1014,9 +1088,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1039,9 +1114,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1064,9 +1140,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1089,9 +1166,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1114,9 +1192,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1139,9 +1218,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1164,9 +1244,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1189,9 +1270,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1214,9 +1296,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1239,9 +1322,14 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1260,9 +1348,14 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1281,9 +1374,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1306,9 +1400,14 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1327,9 +1426,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1352,9 +1452,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1377,9 +1478,14 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1398,9 +1504,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
-      </c>
-      <c r="E41" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1423,9 +1530,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1448,9 +1556,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
-      </c>
-      <c r="E43" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1473,9 +1582,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1498,9 +1608,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1523,9 +1634,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
-      </c>
-      <c r="E46" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1548,9 +1660,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1573,9 +1686,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
-      </c>
-      <c r="E48" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1598,9 +1712,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
-      </c>
-      <c r="E49" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1623,9 +1738,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>100</v>
-      </c>
-      <c r="E50" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1648,9 +1764,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
-      </c>
-      <c r="E51" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1673,9 +1790,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
-      </c>
-      <c r="E52" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
@@ -1684,7 +1802,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EpisodeEvent.cancerEpisode</t>
+          <t>PathologicalStage.imagingForPrimarySite</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1698,19 +1816,28 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EpisodeEvent.diseaseStatus</t>
+          <t>PathologicalStage.ctForPrimarySite</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1719,19 +1846,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EpisodeEvent.definedAt</t>
+          <t>PathologicalStage.mriForPrimarySite</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1740,23 +1876,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EpisodeEvent.dateOfEpisode</t>
+          <t>PathologicalStage.usForPrimarySite</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1765,23 +1906,28 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Surgery.diagnosisReference</t>
+          <t>PathologicalStage.otherImagingForPrimarySite</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1790,18 +1936,23 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Surgery.episodeEvent</t>
+          <t>PathologicalStage.imagingForNeck</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1815,19 +1966,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Surgery.surgeryType</t>
+          <t>PathologicalStage.ctForNeck</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1836,23 +1996,28 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Surgery.dateOfSurgery</t>
+          <t>PathologicalStage.mriForNeck</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1861,19 +2026,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Surgery.surgeryIntention</t>
+          <t>PathologicalStage.usForNeck</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1882,23 +2056,28 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Surgery.marginsAfterSurgery</t>
+          <t>PathologicalStage.otherImagingForNeck</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1907,18 +2086,23 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Surgery.tumorRupture</t>
+          <t>PathologicalStage.imagingForMetastasis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1932,23 +2116,28 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Surgery.surgicalSpecimenMitoticCount</t>
+          <t>PathologicalStage.ctForMetastasis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1957,23 +2146,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Surgery.surgicalSpecimenGradingOnlyInUntreatedTumours</t>
+          <t>PathologicalStage.mriForMetastasis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1982,60 +2176,83 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PatientFollowUp.patient</t>
+          <t>PathologicalStage.usForMetastasis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
       <c r="D66" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PatientFollowUp.statusOfPatientAtLastFollowUp</t>
+          <t>PathologicalStage.otherImagingForMetastasis</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PatientFollowUp.statusOfDiseaseAtLastFollowUp</t>
+          <t>PathologicalStage.localised</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2043,55 +2260,1764 @@
           <t>High</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>100</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Missing</t>
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PatientFollowUp.patientFollowUpDate</t>
+          <t>PathologicalStage.numberOfTumorNodules</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>PathologicalStage.locoRegional</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PathologicalStage.regionalNodalMetastases</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PathologicalStage.softTissue</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>50</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PathologicalStage.distantLymphNode</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>50</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PathologicalStage.lung</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>50</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PathologicalStage.metastasisatbone</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>50</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PathologicalStage.liver</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>50</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PathologicalStage.pleura</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>50</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PathologicalStage.peritoneum</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>50</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PathologicalStage.brain</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>50</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PathologicalStage.otherViscera</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>50</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PathologicalStage.unknown</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>50</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>EpisodeEvent.cancerEpisode</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EpisodeEvent.diseaseStatus</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EpisodeEvent.definedAt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EpisodeEvent.dateOfEpisode</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Surgery.diagnosisReference</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>50</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Surgery.episodeEvent</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Surgery.surgeryType</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Surgery.dateOfSurgery</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Surgery.surgeryIntention</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Surgery.marginsAfterSurgery</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Surgery.tumorRupture</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Surgery.surgicalSpecimenMitoticCount</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Surgery.surgicalSpecimenGradingOnlyInUntreatedTumours</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>50</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Radiotherapy.episodeEvent</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Radiotherapy.radiotherapyHospital</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>50</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Radiotherapy.intent</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Radiotherapy.setting</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Radiotherapy.totalDoseGy</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Radiotherapy.numberOfFractions</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Radiotherapy.startDate</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Radiotherapy.endDate</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Radiotherapy.metastaticTreatmentSiteLung</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Radiotherapy.metastaticTreatmentSiteMediastinum</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>50</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Radiotherapy.metastaticTreatmentSiteBone</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>50</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Radiotherapy.metastaticTreatmentSiteSoftTissue</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>50</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Radiotherapy.metastaticTreatmentSiteLiver</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Radiotherapy.rtTreatmentCompletedAsPlanned?</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>50</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Radiotherapy.regionalDeepHyperthemia</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Radiotherapy.treatmentResponse</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Radiotherapy.diagnosisReference</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>50</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.diagnosisReference</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>50</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.episodeEvent</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.systemictreatmentHospital</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>50</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.typeOfSystemicTreatment</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.chemotherapyInfo</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.startDateSystemicTreatment</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.endDateSystemicTreatment</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.numberOfCycles/Administrations</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>50</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.regimen</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>50</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.reasonForEndOfTreatment</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SystemicTreatment.treatmentResponse</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PatientFollowUp.patient</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>50</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PatientFollowUp.statusOfPatientAtLastFollowUp</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>50</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PatientFollowUp.statusOfDiseaseAtLastFollowUp</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>50</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PatientFollowUp.patientFollowUpDate</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>50</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>PatientFollowUp.lastContact</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>100</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Missing</t>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>50</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DrugsForTreatments.systemicTreatment</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DrugsForTreatments.otherLocalTreatment</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>50</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>DrugsForTreatments.isolatedLimbPerfusion</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>50</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DrugsForTreatments.drug</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not present</t>
         </is>
       </c>
     </row>
